--- a/btulz.transforms.core/src/main/resources/templates/domain_models_template_v4.0.xlsx
+++ b/btulz.transforms.core/src/main/resources/templates/domain_models_template_v4.0.xlsx
@@ -556,7 +556,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="348">
   <si>
     <t>字母数字</t>
   </si>
@@ -763,10 +763,6 @@
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期/时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1900,10 +1896,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Decimal</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1958,10 +1950,6 @@
   </si>
   <si>
     <t>Time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2191,6 +2179,25 @@
   <si>
     <t>更新动作标识</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期/小时</t>
+  </si>
+  <si>
+    <t>日期/小时</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3421,6 +3428,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3440,18 +3459,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3874,7 +3881,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Foreword"/>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G1"/>
@@ -3893,7 +3900,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="94" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
@@ -3904,19 +3911,19 @@
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="108" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B2" s="108"/>
       <c r="C2" s="108" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D2" s="119" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E2" s="119"/>
       <c r="F2" s="119"/>
       <c r="G2" s="108" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -3930,7 +3937,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="103" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B4" s="120"/>
       <c r="C4" s="120"/>
@@ -3941,12 +3948,12 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="109" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B5" s="110"/>
       <c r="C5" s="68"/>
       <c r="D5" s="71" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E5" s="111">
         <v>30</v>
@@ -3956,12 +3963,12 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="109" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B6" s="110"/>
       <c r="C6" s="68"/>
       <c r="D6" s="71" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E6" s="111">
         <v>100</v>
@@ -3971,12 +3978,12 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="109" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B7" s="110"/>
       <c r="C7" s="68"/>
       <c r="D7" s="71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E7" s="111">
         <v>60</v>
@@ -3986,54 +3993,54 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="101" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B8" s="102"/>
       <c r="C8" s="95"/>
       <c r="D8" s="113" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E8" s="66" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="F8" s="66" t="s">
-        <v>245</v>
-      </c>
       <c r="G8" s="57"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="130"/>
-      <c r="B9" s="131"/>
+      <c r="A9" s="123"/>
+      <c r="B9" s="124"/>
       <c r="C9" s="116"/>
       <c r="D9" s="114"/>
       <c r="E9" s="66" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F9" s="67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G9" s="57"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="130"/>
-      <c r="B10" s="131"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="116"/>
       <c r="D10" s="114"/>
       <c r="E10" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="66" t="s">
         <v>247</v>
       </c>
-      <c r="F10" s="66" t="s">
-        <v>248</v>
-      </c>
       <c r="G10" s="57"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="130"/>
-      <c r="B11" s="131"/>
+      <c r="A11" s="123"/>
+      <c r="B11" s="124"/>
       <c r="C11" s="116"/>
       <c r="D11" s="114"/>
       <c r="E11" s="66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F11" s="66" t="s">
         <v>3</v>
@@ -4041,12 +4048,12 @@
       <c r="G11" s="57"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="130"/>
-      <c r="B12" s="131"/>
+      <c r="A12" s="123"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="116"/>
       <c r="D12" s="114"/>
       <c r="E12" s="66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F12" s="66" t="s">
         <v>6</v>
@@ -4054,15 +4061,15 @@
       <c r="G12" s="57"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="130"/>
-      <c r="B13" s="131"/>
+      <c r="A13" s="123"/>
+      <c r="B13" s="124"/>
       <c r="C13" s="116"/>
       <c r="D13" s="114"/>
       <c r="E13" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="F13" s="66" t="s">
         <v>251</v>
-      </c>
-      <c r="F13" s="66" t="s">
-        <v>252</v>
       </c>
       <c r="G13" s="57"/>
     </row>
@@ -4072,46 +4079,46 @@
       <c r="C14" s="96"/>
       <c r="D14" s="115"/>
       <c r="E14" s="66" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F14" s="66" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G14" s="57"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="101" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B15" s="102"/>
       <c r="C15" s="95"/>
       <c r="D15" s="113" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" s="66" t="s">
         <v>257</v>
       </c>
-      <c r="E15" s="66" t="s">
+      <c r="F15" s="66" t="s">
         <v>258</v>
       </c>
-      <c r="F15" s="66" t="s">
-        <v>259</v>
-      </c>
       <c r="G15" s="57"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="132"/>
-      <c r="B16" s="133"/>
+      <c r="A16" s="125"/>
+      <c r="B16" s="126"/>
       <c r="C16" s="117"/>
       <c r="D16" s="118"/>
       <c r="E16" s="72" t="s">
+        <v>259</v>
+      </c>
+      <c r="F16" s="72" t="s">
         <v>260</v>
-      </c>
-      <c r="F16" s="72" t="s">
-        <v>261</v>
       </c>
       <c r="G16" s="64"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="134" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B17" s="135"/>
       <c r="C17" s="135"/>
@@ -4122,12 +4129,12 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="109" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B18" s="110"/>
       <c r="C18" s="68"/>
       <c r="D18" s="70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E18" s="111">
         <v>30</v>
@@ -4137,12 +4144,12 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="109" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B19" s="110"/>
       <c r="C19" s="68"/>
       <c r="D19" s="70" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E19" s="111">
         <v>100</v>
@@ -4152,12 +4159,12 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="109" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B20" s="110"/>
       <c r="C20" s="68"/>
       <c r="D20" s="70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E20" s="111">
         <v>60</v>
@@ -4167,18 +4174,18 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="101" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B21" s="102"/>
       <c r="C21" s="95"/>
       <c r="D21" s="97" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E21" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="F21" s="65" t="s">
         <v>258</v>
-      </c>
-      <c r="F21" s="65" t="s">
-        <v>259</v>
       </c>
       <c r="G21" s="57"/>
     </row>
@@ -4188,29 +4195,29 @@
       <c r="C22" s="96"/>
       <c r="D22" s="98"/>
       <c r="E22" s="65" t="s">
+        <v>259</v>
+      </c>
+      <c r="F22" s="65" t="s">
         <v>260</v>
-      </c>
-      <c r="F22" s="65" t="s">
-        <v>261</v>
       </c>
       <c r="G22" s="57"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="137" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B23" s="144" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C23" s="95"/>
       <c r="D23" s="142" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E23" s="65" t="s">
+        <v>268</v>
+      </c>
+      <c r="F23" s="65" t="s">
         <v>269</v>
-      </c>
-      <c r="F23" s="65" t="s">
-        <v>270</v>
       </c>
       <c r="G23" s="58"/>
     </row>
@@ -4220,10 +4227,10 @@
       <c r="C24" s="116"/>
       <c r="D24" s="143"/>
       <c r="E24" s="65" t="s">
+        <v>270</v>
+      </c>
+      <c r="F24" s="65" t="s">
         <v>271</v>
-      </c>
-      <c r="F24" s="65" t="s">
-        <v>272</v>
       </c>
       <c r="G24" s="58"/>
     </row>
@@ -4233,10 +4240,10 @@
       <c r="C25" s="116"/>
       <c r="D25" s="143"/>
       <c r="E25" s="65" t="s">
+        <v>272</v>
+      </c>
+      <c r="F25" s="65" t="s">
         <v>273</v>
-      </c>
-      <c r="F25" s="65" t="s">
-        <v>274</v>
       </c>
       <c r="G25" s="58"/>
     </row>
@@ -4246,10 +4253,10 @@
       <c r="C26" s="116"/>
       <c r="D26" s="143"/>
       <c r="E26" s="65" t="s">
+        <v>274</v>
+      </c>
+      <c r="F26" s="65" t="s">
         <v>275</v>
-      </c>
-      <c r="F26" s="65" t="s">
-        <v>276</v>
       </c>
       <c r="G26" s="58"/>
     </row>
@@ -4259,10 +4266,10 @@
       <c r="C27" s="116"/>
       <c r="D27" s="143"/>
       <c r="E27" s="65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F27" s="65" t="s">
-        <v>278</v>
+        <v>347</v>
       </c>
       <c r="G27" s="58"/>
     </row>
@@ -4272,10 +4279,10 @@
       <c r="C28" s="116"/>
       <c r="D28" s="143"/>
       <c r="E28" s="65" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F28" s="65" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G28" s="58"/>
     </row>
@@ -4285,27 +4292,27 @@
       <c r="C29" s="96"/>
       <c r="D29" s="143"/>
       <c r="E29" s="65" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F29" s="65" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G29" s="58"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="138"/>
       <c r="B30" s="140" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C30" s="95"/>
       <c r="D30" s="97" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E30" s="65" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F30" s="65" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G30" s="58"/>
     </row>
@@ -4315,10 +4322,10 @@
       <c r="C31" s="116"/>
       <c r="D31" s="145"/>
       <c r="E31" s="65" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F31" s="65" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G31" s="58"/>
     </row>
@@ -4328,10 +4335,10 @@
       <c r="C32" s="116"/>
       <c r="D32" s="145"/>
       <c r="E32" s="65" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F32" s="65" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G32" s="58"/>
     </row>
@@ -4341,10 +4348,10 @@
       <c r="C33" s="116"/>
       <c r="D33" s="145"/>
       <c r="E33" s="65" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
       <c r="F33" s="65" t="s">
-        <v>293</v>
+        <v>344</v>
       </c>
       <c r="G33" s="58"/>
     </row>
@@ -4354,10 +4361,10 @@
       <c r="C34" s="116"/>
       <c r="D34" s="145"/>
       <c r="E34" s="65" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F34" s="65" t="s">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="G34" s="58"/>
     </row>
@@ -4367,10 +4374,10 @@
       <c r="C35" s="116"/>
       <c r="D35" s="145"/>
       <c r="E35" s="65" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F35" s="65" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G35" s="58"/>
     </row>
@@ -4380,10 +4387,10 @@
       <c r="C36" s="116"/>
       <c r="D36" s="145"/>
       <c r="E36" s="65" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F36" s="65" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G36" s="58"/>
     </row>
@@ -4393,10 +4400,10 @@
       <c r="C37" s="116"/>
       <c r="D37" s="145"/>
       <c r="E37" s="65" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F37" s="65" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G37" s="58"/>
     </row>
@@ -4406,10 +4413,10 @@
       <c r="C38" s="116"/>
       <c r="D38" s="145"/>
       <c r="E38" s="65" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F38" s="65" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G38" s="58"/>
     </row>
@@ -4419,10 +4426,10 @@
       <c r="C39" s="116"/>
       <c r="D39" s="145"/>
       <c r="E39" s="65" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F39" s="65" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G39" s="58"/>
     </row>
@@ -4432,10 +4439,10 @@
       <c r="C40" s="116"/>
       <c r="D40" s="145"/>
       <c r="E40" s="65" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F40" s="65" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G40" s="58"/>
     </row>
@@ -4445,42 +4452,42 @@
       <c r="C41" s="116"/>
       <c r="D41" s="145"/>
       <c r="E41" s="65" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F41" s="65" t="s">
+        <v>303</v>
+      </c>
+      <c r="G41" s="58"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="138"/>
+      <c r="B42" s="140"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="65" t="s">
+        <v>306</v>
+      </c>
+      <c r="F42" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="G42" s="58"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="139"/>
+      <c r="B43" s="141"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="F43" s="65" t="s">
         <v>308</v>
       </c>
-      <c r="G41" s="58"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="139"/>
-      <c r="B42" s="141"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="98"/>
-      <c r="E42" s="65" t="s">
-        <v>310</v>
-      </c>
-      <c r="F42" s="65" t="s">
-        <v>311</v>
-      </c>
-      <c r="G42" s="58"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="109" t="s">
-        <v>225</v>
-      </c>
-      <c r="B43" s="110"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="105" t="s">
-        <v>268</v>
-      </c>
-      <c r="E43" s="106"/>
-      <c r="F43" s="107"/>
       <c r="G43" s="58"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="109" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B44" s="110"/>
       <c r="C44" s="68"/>
@@ -4492,45 +4499,43 @@
       <c r="G44" s="58"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="B45" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="E45" s="111">
-        <v>5</v>
-      </c>
-      <c r="F45" s="112"/>
+      <c r="A45" s="109" t="s">
+        <v>225</v>
+      </c>
+      <c r="B45" s="110"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="105" t="s">
+        <v>266</v>
+      </c>
+      <c r="E45" s="106"/>
+      <c r="F45" s="107"/>
       <c r="G45" s="58"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="147"/>
-      <c r="B46" s="61" t="s">
-        <v>231</v>
+      <c r="A46" s="146" t="s">
+        <v>226</v>
+      </c>
+      <c r="B46" s="59" t="s">
+        <v>229</v>
       </c>
       <c r="C46" s="65"/>
       <c r="D46" s="70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E46" s="111">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F46" s="112"/>
       <c r="G46" s="58"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="109" t="s">
-        <v>228</v>
-      </c>
-      <c r="B47" s="110"/>
-      <c r="C47" s="68"/>
+      <c r="A47" s="147"/>
+      <c r="B47" s="61" t="s">
+        <v>230</v>
+      </c>
+      <c r="C47" s="65"/>
       <c r="D47" s="70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E47" s="111">
         <v>60</v>
@@ -4538,245 +4543,260 @@
       <c r="F47" s="112"/>
       <c r="G47" s="58"/>
     </row>
-    <row r="48" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="148" t="s">
-        <v>229</v>
-      </c>
-      <c r="B48" s="149"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="73" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="109" t="s">
+        <v>227</v>
+      </c>
+      <c r="B48" s="110"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="70" t="s">
         <v>242</v>
       </c>
-      <c r="E48" s="127" t="s">
-        <v>266</v>
-      </c>
-      <c r="F48" s="124"/>
-      <c r="G48" s="69"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="103" t="s">
+      <c r="E48" s="111">
+        <v>60</v>
+      </c>
+      <c r="F48" s="112"/>
+      <c r="G48" s="58"/>
+    </row>
+    <row r="49" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="148" t="s">
+        <v>228</v>
+      </c>
+      <c r="B49" s="149"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="73" t="s">
+        <v>241</v>
+      </c>
+      <c r="E49" s="131" t="s">
+        <v>265</v>
+      </c>
+      <c r="F49" s="128"/>
+      <c r="G49" s="69"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="103" t="s">
+        <v>232</v>
+      </c>
+      <c r="B50" s="120"/>
+      <c r="C50" s="120"/>
+      <c r="D50" s="120"/>
+      <c r="E50" s="120"/>
+      <c r="F50" s="120"/>
+      <c r="G50" s="121"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" s="129" t="s">
         <v>233</v>
-      </c>
-      <c r="B49" s="120"/>
-      <c r="C49" s="120"/>
-      <c r="D49" s="120"/>
-      <c r="E49" s="120"/>
-      <c r="F49" s="120"/>
-      <c r="G49" s="121"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="125" t="s">
-        <v>234</v>
-      </c>
-      <c r="B50" s="122"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="70" t="s">
-        <v>238</v>
-      </c>
-      <c r="E50" s="111">
-        <v>30</v>
-      </c>
-      <c r="F50" s="112"/>
-      <c r="G50" s="62"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="125" t="s">
-        <v>235</v>
       </c>
       <c r="B51" s="122"/>
       <c r="C51" s="60"/>
       <c r="D51" s="70" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E51" s="111">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F51" s="112"/>
       <c r="G51" s="62"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="125" t="s">
-        <v>236</v>
+      <c r="A52" s="129" t="s">
+        <v>234</v>
       </c>
       <c r="B52" s="122"/>
       <c r="C52" s="60"/>
       <c r="D52" s="70" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E52" s="111">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F52" s="112"/>
       <c r="G52" s="62"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="101" t="s">
+      <c r="A53" s="129" t="s">
+        <v>235</v>
+      </c>
+      <c r="B53" s="122"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="70" t="s">
+        <v>242</v>
+      </c>
+      <c r="E53" s="111">
+        <v>60</v>
+      </c>
+      <c r="F53" s="112"/>
+      <c r="G53" s="62"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="101" t="s">
+        <v>262</v>
+      </c>
+      <c r="B54" s="102"/>
+      <c r="C54" s="99"/>
+      <c r="D54" s="97" t="s">
+        <v>256</v>
+      </c>
+      <c r="E54" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="F54" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="G54" s="57"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="103"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="98"/>
+      <c r="E55" s="65" t="s">
+        <v>259</v>
+      </c>
+      <c r="F55" s="65" t="s">
+        <v>260</v>
+      </c>
+      <c r="G55" s="57"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="101" t="s">
         <v>263</v>
       </c>
-      <c r="B53" s="102"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="97" t="s">
+      <c r="B56" s="102"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="97" t="s">
+        <v>256</v>
+      </c>
+      <c r="E56" s="65" t="s">
         <v>257</v>
       </c>
-      <c r="E53" s="65" t="s">
+      <c r="F56" s="65" t="s">
         <v>258</v>
       </c>
-      <c r="F53" s="65" t="s">
+      <c r="G56" s="57"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="103"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="98"/>
+      <c r="E57" s="65" t="s">
         <v>259</v>
       </c>
-      <c r="G53" s="57"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="103"/>
-      <c r="B54" s="104"/>
-      <c r="C54" s="100"/>
-      <c r="D54" s="98"/>
-      <c r="E54" s="65" t="s">
+      <c r="F57" s="65" t="s">
         <v>260</v>
       </c>
-      <c r="F54" s="65" t="s">
-        <v>261</v>
-      </c>
-      <c r="G54" s="57"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="101" t="s">
+      <c r="G57" s="57"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" s="101" t="s">
         <v>264</v>
       </c>
-      <c r="B55" s="102"/>
-      <c r="C55" s="99"/>
-      <c r="D55" s="97" t="s">
+      <c r="B58" s="102"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="97" t="s">
+        <v>256</v>
+      </c>
+      <c r="E58" s="65" t="s">
         <v>257</v>
       </c>
-      <c r="E55" s="65" t="s">
+      <c r="F58" s="65" t="s">
         <v>258</v>
       </c>
-      <c r="F55" s="65" t="s">
+      <c r="G58" s="57"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" s="103"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="100"/>
+      <c r="D59" s="98"/>
+      <c r="E59" s="65" t="s">
         <v>259</v>
       </c>
-      <c r="G55" s="57"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="103"/>
-      <c r="B56" s="104"/>
-      <c r="C56" s="100"/>
-      <c r="D56" s="98"/>
-      <c r="E56" s="65" t="s">
+      <c r="F59" s="65" t="s">
         <v>260</v>
       </c>
-      <c r="F56" s="65" t="s">
-        <v>261</v>
-      </c>
-      <c r="G56" s="57"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="101" t="s">
-        <v>265</v>
-      </c>
-      <c r="B57" s="102"/>
-      <c r="C57" s="99"/>
-      <c r="D57" s="97" t="s">
-        <v>257</v>
-      </c>
-      <c r="E57" s="65" t="s">
-        <v>258</v>
-      </c>
-      <c r="F57" s="65" t="s">
-        <v>259</v>
-      </c>
-      <c r="G57" s="57"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="103"/>
-      <c r="B58" s="104"/>
-      <c r="C58" s="100"/>
-      <c r="D58" s="98"/>
-      <c r="E58" s="65" t="s">
-        <v>260</v>
-      </c>
-      <c r="F58" s="65" t="s">
-        <v>261</v>
-      </c>
-      <c r="G58" s="57"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59" s="125" t="s">
-        <v>212</v>
-      </c>
-      <c r="B59" s="112"/>
-      <c r="C59" s="112"/>
-      <c r="D59" s="112"/>
-      <c r="E59" s="112"/>
-      <c r="F59" s="112"/>
-      <c r="G59" s="126"/>
-    </row>
-    <row r="60" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="123" t="s">
-        <v>237</v>
-      </c>
-      <c r="B60" s="124"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="127" t="s">
-        <v>327</v>
-      </c>
-      <c r="E60" s="128"/>
-      <c r="F60" s="129"/>
-      <c r="G60" s="64"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="55"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="56"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="53"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="53"/>
+      <c r="G59" s="57"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" s="129" t="s">
+        <v>211</v>
+      </c>
+      <c r="B60" s="112"/>
+      <c r="C60" s="112"/>
+      <c r="D60" s="112"/>
+      <c r="E60" s="112"/>
+      <c r="F60" s="112"/>
+      <c r="G60" s="130"/>
+    </row>
+    <row r="61" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="127" t="s">
+        <v>236</v>
+      </c>
+      <c r="B61" s="128"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="131" t="s">
+        <v>324</v>
+      </c>
+      <c r="E61" s="132"/>
+      <c r="F61" s="133"/>
+      <c r="G61" s="64"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" s="55"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="56"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="53"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="65">
     <mergeCell ref="C23:C29"/>
-    <mergeCell ref="C30:C42"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="C30:C43"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="A45:B45"/>
     <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A47:B47"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A23:A42"/>
-    <mergeCell ref="B30:B42"/>
+    <mergeCell ref="A23:A43"/>
+    <mergeCell ref="B30:B43"/>
     <mergeCell ref="D23:D29"/>
     <mergeCell ref="B23:B29"/>
-    <mergeCell ref="D30:D42"/>
-    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="D30:D43"/>
+    <mergeCell ref="E46:F46"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A60:G60"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E48:F48"/>
-    <mergeCell ref="A57:B58"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A53:B54"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="E53:F53"/>
     <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A52:B52"/>
     <mergeCell ref="E51:F51"/>
     <mergeCell ref="A51:B51"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="A50:B50"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D8:D14"/>
@@ -4791,13 +4811,13 @@
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="A55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
     <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F45"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
@@ -4816,8 +4836,8 @@
   <sheetPr codeName="Template"/>
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4841,14 +4861,14 @@
         <v>10</v>
       </c>
       <c r="B1" s="152" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C1" s="152"/>
       <c r="D1" s="54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E1" s="83" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>12</v>
@@ -4861,10 +4881,10 @@
         <v>14</v>
       </c>
       <c r="J1" s="84" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K1" s="54" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L1" s="85" t="s">
         <v>2</v>
@@ -4878,7 +4898,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D2" s="150" t="s">
         <v>18</v>
@@ -4898,7 +4918,7 @@
       </c>
       <c r="J2" s="150"/>
       <c r="K2" s="150" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L2" s="151" t="s">
         <v>23</v>
@@ -4931,7 +4951,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>28</v>
@@ -4943,7 +4963,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G4" s="23">
         <v>8</v>
@@ -4956,22 +4976,22 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>84</v>
-      </c>
       <c r="D5" s="23" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G5" s="23">
         <v>8</v>
@@ -4984,13 +5004,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>29</v>
@@ -4999,7 +5019,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G6" s="23">
         <v>8</v>
@@ -5012,22 +5032,22 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>89</v>
-      </c>
       <c r="D7" s="23" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G7" s="23">
         <v>8</v>
@@ -5049,20 +5069,20 @@
         <v>35</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G8" s="23">
         <v>1</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -5079,13 +5099,13 @@
         <v>32</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>33</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G9" s="23">
         <v>30</v>
@@ -5098,22 +5118,22 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G10" s="23">
         <v>8</v>
@@ -5129,19 +5149,19 @@
         <v>34</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G11" s="23">
         <v>8</v>
@@ -5154,29 +5174,29 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G12" s="23">
         <v>1</v>
       </c>
       <c r="H12" s="31"/>
       <c r="I12" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -5199,14 +5219,14 @@
         <v>33</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G13" s="23">
         <v>1</v>
       </c>
       <c r="H13" s="23"/>
       <c r="I13" s="74" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -5214,7 +5234,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>47</v>
@@ -5223,13 +5243,13 @@
         <v>48</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E14" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="F14" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>50</v>
       </c>
       <c r="G14" s="23">
         <v>8</v>
@@ -5242,22 +5262,22 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="D15" s="29" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>49</v>
+        <v>346</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="23">
         <v>8</v>
@@ -5270,22 +5290,22 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="D16" s="29" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E16" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="F16" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>50</v>
       </c>
       <c r="G16" s="23">
         <v>8</v>
@@ -5298,22 +5318,22 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="D17" s="29" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>49</v>
+        <v>346</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" s="23">
         <v>8</v>
@@ -5335,13 +5355,13 @@
         <v>46</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G18" s="23">
         <v>8</v>
@@ -5354,22 +5374,22 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="C19" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G19" s="23">
         <v>8</v>
@@ -5382,22 +5402,22 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G20" s="23">
         <v>36</v>
@@ -5410,22 +5430,22 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G21" s="23">
         <v>36</v>
@@ -5438,13 +5458,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="C22" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D22" s="29" t="s">
         <v>29</v>
@@ -5453,7 +5473,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G22" s="23">
         <v>8</v>
@@ -5466,13 +5486,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="B23" s="34" t="s">
-        <v>126</v>
-      </c>
       <c r="C23" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D23" s="29" t="s">
         <v>29</v>
@@ -5481,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G23" s="23">
         <v>100</v>
@@ -5494,22 +5514,22 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="C24" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="C24" s="50" t="s">
-        <v>190</v>
-      </c>
       <c r="D24" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E24" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G24" s="23">
         <v>8</v>
@@ -5522,29 +5542,29 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="C25" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="36" t="s">
-        <v>129</v>
-      </c>
       <c r="D25" s="29" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G25" s="23">
         <v>1</v>
       </c>
       <c r="H25" s="37"/>
       <c r="I25" s="74" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -5552,29 +5572,29 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G26" s="23">
         <v>1</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="74" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -5582,22 +5602,22 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="D27" s="29" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E27" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="F27" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>50</v>
       </c>
       <c r="G27" s="23">
         <v>8</v>
@@ -5610,22 +5630,22 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="D28" s="29" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E28" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="F28" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>50</v>
       </c>
       <c r="G28" s="23">
         <v>8</v>
@@ -5638,22 +5658,22 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="D29" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E29" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="F29" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>50</v>
       </c>
       <c r="G29" s="23">
         <v>8</v>
@@ -5681,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G30" s="23">
         <v>100</v>
@@ -5703,13 +5723,13 @@
         <v>7</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F31" s="81" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G31" s="23">
         <v>200</v>
@@ -5722,16 +5742,16 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E32" s="23" t="s">
         <v>1</v>
@@ -5750,22 +5770,22 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" s="82" t="s">
+        <v>331</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B33" s="82" t="s">
-        <v>334</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="D33" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E33" s="81" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G33" s="23">
         <v>8</v>
@@ -5778,29 +5798,29 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E34" s="23" t="s">
         <v>33</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G34" s="23">
         <v>1</v>
       </c>
       <c r="H34" s="23"/>
       <c r="I34" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
@@ -5808,29 +5828,29 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>187</v>
-      </c>
       <c r="D35" s="23" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E35" s="81" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F35" s="81" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G35" s="23">
         <v>1</v>
       </c>
       <c r="H35" s="23"/>
       <c r="I35" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
@@ -5981,20 +6001,20 @@
         <v>10</v>
       </c>
       <c r="B46" s="152" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C46" s="152"/>
       <c r="D46" s="54" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="153" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H46" s="153"/>
       <c r="I46" s="3" t="s">
@@ -6004,7 +6024,7 @@
         <v>6</v>
       </c>
       <c r="K46" s="54" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L46" s="85" t="s">
         <v>2</v>
@@ -6018,10 +6038,10 @@
         <v>17</v>
       </c>
       <c r="C47" s="155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D47" s="158" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E47" s="150" t="s">
         <v>19</v>
@@ -6038,7 +6058,7 @@
       </c>
       <c r="J47" s="150"/>
       <c r="K47" s="150" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L47" s="151" t="s">
         <v>23</v>
@@ -6077,13 +6097,13 @@
         <v>28</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G49" s="23">
         <v>8</v>
@@ -6096,22 +6116,22 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="C50" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E50" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G50" s="23">
         <v>8</v>
@@ -6124,13 +6144,13 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D51" s="29" t="s">
         <v>29</v>
@@ -6139,7 +6159,7 @@
         <v>4</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G51" s="23">
         <v>8</v>
@@ -6161,13 +6181,13 @@
         <v>32</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E52" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G52" s="23">
         <v>30</v>
@@ -6180,22 +6200,22 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E53" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G53" s="23">
         <v>8</v>
@@ -6211,19 +6231,19 @@
         <v>34</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E54" s="23" t="s">
         <v>33</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G54" s="23">
         <v>8</v>
@@ -6245,20 +6265,20 @@
         <v>35</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E55" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G55" s="23">
         <v>1</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J55" s="13"/>
       <c r="K55" s="14"/>
@@ -6275,20 +6295,20 @@
         <v>37</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E56" s="23" t="s">
         <v>33</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G56" s="23">
         <v>1</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="74" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
@@ -6296,29 +6316,29 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G57" s="23">
         <v>1</v>
       </c>
       <c r="H57" s="23"/>
       <c r="I57" s="74" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
@@ -6326,7 +6346,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>47</v>
@@ -6335,13 +6355,13 @@
         <v>48</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E58" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="F58" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="F58" s="23" t="s">
-        <v>50</v>
       </c>
       <c r="G58" s="23">
         <v>8</v>
@@ -6354,22 +6374,22 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B59" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="D59" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="F59" s="23" t="s">
         <v>52</v>
-      </c>
-      <c r="D59" s="29" t="s">
-        <v>340</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F59" s="23" t="s">
-        <v>53</v>
       </c>
       <c r="G59" s="23">
         <v>8</v>
@@ -6382,22 +6402,22 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="D60" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E60" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="F60" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="F60" s="23" t="s">
-        <v>50</v>
       </c>
       <c r="G60" s="23">
         <v>8</v>
@@ -6410,22 +6430,22 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B61" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="D61" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>49</v>
+        <v>346</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G61" s="23">
         <v>8</v>
@@ -6447,13 +6467,13 @@
         <v>46</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E62" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G62" s="23">
         <v>8</v>
@@ -6466,22 +6486,22 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="C63" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E63" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G63" s="23">
         <v>8</v>
@@ -6494,22 +6514,22 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E64" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G64" s="23">
         <v>36</v>
@@ -6522,22 +6542,22 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D65" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E65" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G65" s="23">
         <v>36</v>
@@ -6559,13 +6579,13 @@
         <v>41</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E66" s="23" t="s">
         <v>33</v>
       </c>
       <c r="F66" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G66" s="23">
         <v>100</v>
@@ -6587,13 +6607,13 @@
         <v>7</v>
       </c>
       <c r="D67" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E67" s="23" t="s">
         <v>33</v>
       </c>
       <c r="F67" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G67" s="23">
         <v>200</v>
@@ -6606,29 +6626,29 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E68" s="23" t="s">
         <v>33</v>
       </c>
       <c r="F68" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G68" s="23">
         <v>1</v>
       </c>
       <c r="H68" s="23"/>
       <c r="I68" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
@@ -6636,29 +6656,29 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="C69" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>187</v>
-      </c>
       <c r="D69" s="23" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E69" s="23" t="s">
         <v>33</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G69" s="23">
         <v>1</v>
       </c>
       <c r="H69" s="23"/>
       <c r="I69" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
@@ -6666,22 +6686,22 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="C70" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="D70" s="23" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E70" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F70" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G70" s="23">
         <v>30</v>
@@ -6694,22 +6714,22 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="C71" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>143</v>
-      </c>
       <c r="D71" s="23" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E71" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G71" s="23">
         <v>8</v>
@@ -6722,22 +6742,22 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="C72" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="D72" s="23" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E72" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F72" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G72" s="23">
         <v>8</v>
@@ -6750,22 +6770,22 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="C73" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>149</v>
-      </c>
       <c r="D73" s="23" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E73" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F73" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G73" s="23">
         <v>8</v>
@@ -6778,22 +6798,22 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B74" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>151</v>
-      </c>
       <c r="D74" s="23" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E74" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F74" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G74" s="23">
         <v>8</v>
@@ -6806,22 +6826,22 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B75" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>153</v>
-      </c>
       <c r="D75" s="23" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E75" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F75" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G75" s="23">
         <v>8</v>
@@ -6834,22 +6854,22 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B76" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>155</v>
-      </c>
       <c r="D76" s="23" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E76" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F76" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G76" s="23">
         <v>8</v>
@@ -6862,22 +6882,22 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B77" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="D77" s="23" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E77" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G77" s="23">
         <v>8</v>
@@ -6890,22 +6910,22 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B78" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>159</v>
-      </c>
       <c r="D78" s="23" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E78" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G78" s="23">
         <v>8</v>
@@ -6918,22 +6938,22 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="C79" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>167</v>
-      </c>
       <c r="D79" s="23" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E79" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F79" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G79" s="23">
         <v>30</v>
@@ -6946,22 +6966,22 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="C80" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>170</v>
-      </c>
       <c r="D80" s="23" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E80" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F80" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G80" s="23">
         <v>8</v>
@@ -6974,22 +6994,22 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="C81" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="D81" s="23" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E81" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F81" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G81" s="23">
         <v>8</v>
@@ -7002,22 +7022,22 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E82" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F82" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G82" s="23">
         <v>30</v>
@@ -7030,22 +7050,22 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E83" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F83" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G83" s="23">
         <v>8</v>
@@ -7058,13 +7078,13 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A84" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D84" s="23" t="s">
         <v>29</v>
@@ -7073,7 +7093,7 @@
         <v>4</v>
       </c>
       <c r="F84" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G84" s="23">
         <v>8</v>
@@ -7185,19 +7205,19 @@
     <row r="92" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="93" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A93" s="17" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B93" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C93" s="18" t="s">
         <v>11</v>
       </c>
       <c r="D93" s="86" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E93" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F93" s="51" t="s">
         <v>13</v>
@@ -7211,10 +7231,10 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A94" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B94" s="88" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C94" s="75"/>
       <c r="D94" s="75"/>
@@ -7229,10 +7249,10 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A95" s="156" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B95" s="88" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C95" s="14"/>
       <c r="D95" s="20"/>
@@ -7289,6 +7309,11 @@
     <mergeCell ref="G46:H46"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F49:F88">
+      <formula1>$F$30:$F$43</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -7321,9 +7346,9 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'!--规则'!$F$30:$F$42</xm:f>
+            <xm:f>'!--规则'!$F$30:$F$43</xm:f>
           </x14:formula1>
-          <xm:sqref>F4:F41 F49:F88</xm:sqref>
+          <xm:sqref>F4:F41</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7336,7 +7361,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
@@ -7361,30 +7386,30 @@
         <v>10</v>
       </c>
       <c r="B1" s="152" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C1" s="152"/>
       <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F1" s="92" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="153" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H1" s="153"/>
       <c r="I1" s="92" t="s">
         <v>14</v>
       </c>
       <c r="J1" s="84" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K1" s="92" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L1" s="85" t="s">
         <v>2</v>
@@ -7398,7 +7423,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D2" s="150" t="s">
         <v>18</v>
@@ -7418,7 +7443,7 @@
       </c>
       <c r="J2" s="150"/>
       <c r="K2" s="150" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L2" s="151" t="s">
         <v>23</v>
@@ -7448,13 +7473,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>2</v>
@@ -7463,7 +7488,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G4" s="23">
         <v>8</v>
@@ -7476,13 +7501,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>2</v>
@@ -7491,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G5" s="23">
         <v>100</v>
@@ -7507,7 +7532,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>28</v>
@@ -7519,7 +7544,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G6" s="23">
         <v>8</v>
@@ -7547,7 +7572,7 @@
         <v>33</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G7" s="23">
         <v>30</v>
@@ -7560,13 +7585,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>29</v>
@@ -7575,7 +7600,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G8" s="23">
         <v>8</v>
@@ -7588,13 +7613,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>29</v>
@@ -7603,7 +7628,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G9" s="23">
         <v>8</v>
@@ -7619,7 +7644,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>34</v>
@@ -7631,7 +7656,7 @@
         <v>33</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G10" s="23">
         <v>8</v>
@@ -7656,10 +7681,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="F11" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>50</v>
       </c>
       <c r="G11" s="23">
         <v>8</v>
@@ -7672,22 +7697,22 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>49</v>
+        <v>346</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G12" s="23">
         <v>8</v>
@@ -7700,22 +7725,22 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="F13" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>50</v>
       </c>
       <c r="G13" s="23">
         <v>8</v>
@@ -7728,22 +7753,22 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>49</v>
+        <v>346</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G14" s="23">
         <v>8</v>
@@ -7771,7 +7796,7 @@
         <v>30</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G15" s="23">
         <v>8</v>
@@ -7784,13 +7809,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="29" t="s">
         <v>2</v>
@@ -7799,7 +7824,7 @@
         <v>30</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G16" s="23">
         <v>8</v>
@@ -7812,13 +7837,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D17" s="29" t="s">
         <v>2</v>
@@ -7827,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G17" s="23">
         <v>36</v>
@@ -7840,13 +7865,13 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>2</v>
@@ -7855,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G18" s="23">
         <v>36</v>
@@ -7868,13 +7893,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="C19" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>2</v>
@@ -7883,7 +7908,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G19" s="23">
         <v>8</v>
@@ -7896,13 +7921,13 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="34" t="s">
-        <v>126</v>
-      </c>
       <c r="C20" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20" s="29" t="s">
         <v>2</v>
@@ -7911,7 +7936,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G20" s="23">
         <v>100</v>
@@ -7924,13 +7949,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="C21" s="50" t="s">
         <v>189</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>190</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>2</v>
@@ -7939,7 +7964,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G21" s="23">
         <v>8</v>
@@ -7952,13 +7977,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="C22" s="36" t="s">
         <v>128</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>129</v>
       </c>
       <c r="D22" s="29" t="s">
         <v>2</v>
@@ -7967,14 +7992,14 @@
         <v>0</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G22" s="23">
         <v>1</v>
       </c>
       <c r="H22" s="37"/>
       <c r="I22" s="74" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -7982,13 +8007,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="38" t="s">
-        <v>131</v>
-      </c>
       <c r="C23" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>2</v>
@@ -7997,14 +8022,14 @@
         <v>0</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G23" s="23">
         <v>1</v>
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -8012,13 +8037,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B24" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="B24" s="44" t="s">
-        <v>181</v>
-      </c>
       <c r="C24" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>29</v>
@@ -8027,14 +8052,14 @@
         <v>33</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G24" s="23">
         <v>1</v>
       </c>
       <c r="H24" s="23"/>
       <c r="I24" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -8042,13 +8067,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>29</v>
@@ -8057,14 +8082,14 @@
         <v>33</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G25" s="23">
         <v>1</v>
       </c>
       <c r="H25" s="23"/>
       <c r="I25" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -8173,33 +8198,33 @@
         <v>10</v>
       </c>
       <c r="B33" s="152" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C33" s="152"/>
       <c r="D33" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F33" s="92" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="153" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H33" s="153"/>
       <c r="I33" s="92" t="s">
         <v>14</v>
       </c>
       <c r="J33" s="84" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K33" s="92" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L33" s="85" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -8210,7 +8235,7 @@
         <v>17</v>
       </c>
       <c r="C34" s="155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D34" s="150" t="s">
         <v>18</v>
@@ -8230,7 +8255,7 @@
       </c>
       <c r="J34" s="150"/>
       <c r="K34" s="150" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L34" s="151" t="s">
         <v>23</v>
@@ -8260,13 +8285,13 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D36" s="29" t="s">
         <v>29</v>
@@ -8275,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G36" s="23">
         <v>8</v>
@@ -8288,13 +8313,13 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="C37" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>29</v>
@@ -8303,7 +8328,7 @@
         <v>30</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G37" s="23">
         <v>8</v>
@@ -8331,7 +8356,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G38" s="23">
         <v>30</v>
@@ -8344,13 +8369,13 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D39" s="29" t="s">
         <v>29</v>
@@ -8359,7 +8384,7 @@
         <v>4</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G39" s="23">
         <v>8</v>
@@ -8375,7 +8400,7 @@
         <v>34</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>34</v>
@@ -8387,7 +8412,7 @@
         <v>33</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G40" s="23">
         <v>8</v>
@@ -8412,10 +8437,10 @@
         <v>29</v>
       </c>
       <c r="E41" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="F41" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="F41" s="23" t="s">
-        <v>50</v>
       </c>
       <c r="G41" s="23">
         <v>8</v>
@@ -8428,22 +8453,22 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="D42" s="29" t="s">
         <v>29</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>49</v>
+        <v>346</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G42" s="23">
         <v>8</v>
@@ -8456,22 +8481,22 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D43" s="29" t="s">
         <v>29</v>
       </c>
       <c r="E43" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="F43" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>50</v>
       </c>
       <c r="G43" s="23">
         <v>8</v>
@@ -8484,22 +8509,22 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="D44" s="29" t="s">
         <v>29</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>49</v>
+        <v>346</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G44" s="23">
         <v>8</v>
@@ -8527,7 +8552,7 @@
         <v>30</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G45" s="23">
         <v>8</v>
@@ -8540,13 +8565,13 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="C46" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D46" s="29" t="s">
         <v>29</v>
@@ -8555,7 +8580,7 @@
         <v>30</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G46" s="23">
         <v>8</v>
@@ -8568,13 +8593,13 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D47" s="29" t="s">
         <v>2</v>
@@ -8583,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G47" s="23">
         <v>36</v>
@@ -8596,13 +8621,13 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D48" s="29" t="s">
         <v>2</v>
@@ -8611,7 +8636,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G48" s="23">
         <v>36</v>
@@ -8624,13 +8649,13 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D49" s="23" t="s">
         <v>29</v>
@@ -8639,14 +8664,14 @@
         <v>33</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G49" s="23">
         <v>1</v>
       </c>
       <c r="H49" s="23"/>
       <c r="I49" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
@@ -8654,13 +8679,13 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="D50" s="23" t="s">
         <v>29</v>
@@ -8669,14 +8694,14 @@
         <v>33</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G50" s="23">
         <v>1</v>
       </c>
       <c r="H50" s="23"/>
       <c r="I50" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
@@ -8769,22 +8794,22 @@
     <row r="58" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A59" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B59" s="87" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C59" s="52" t="s">
         <v>11</v>
       </c>
       <c r="D59" s="86" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E59" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F59" s="90" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
@@ -8795,10 +8820,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B60" s="88" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C60" s="91"/>
       <c r="D60" s="75"/>
@@ -8807,10 +8832,10 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" s="156" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B61" s="88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C61" s="91"/>
       <c r="D61" s="20"/>
@@ -8855,6 +8880,11 @@
     <mergeCell ref="G34:G35"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F28">
+      <formula1>$F$30:$F$43</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -8887,9 +8917,9 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'!--规则'!$F$30:$F$42</xm:f>
+            <xm:f>'!--规则'!$F$30:$F$43</xm:f>
           </x14:formula1>
-          <xm:sqref>F36:F53 F4:F28</xm:sqref>
+          <xm:sqref>F36:F53</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8902,8 +8932,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8926,30 +8956,30 @@
         <v>10</v>
       </c>
       <c r="B1" s="153" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C1" s="152"/>
       <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="87" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="153" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H1" s="153"/>
       <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J1" s="84" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K1" s="54" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L1" s="85" t="s">
         <v>2</v>
@@ -8963,7 +8993,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D2" s="150" t="s">
         <v>18</v>
@@ -8983,7 +9013,7 @@
       </c>
       <c r="J2" s="150"/>
       <c r="K2" s="150" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L2" s="151" t="s">
         <v>23</v>
@@ -9013,13 +9043,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="C4" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>29</v>
@@ -9028,7 +9058,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G4" s="23">
         <v>8</v>
@@ -9056,7 +9086,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G5" s="23">
         <v>30</v>
@@ -9069,13 +9099,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>29</v>
@@ -9084,7 +9114,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G6" s="23">
         <v>8</v>
@@ -9100,7 +9130,7 @@
         <v>34</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>34</v>
@@ -9112,7 +9142,7 @@
         <v>33</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G7" s="23">
         <v>8</v>
@@ -9125,13 +9155,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>29</v>
@@ -9140,7 +9170,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G8" s="23">
         <v>8</v>
@@ -9165,10 +9195,10 @@
         <v>2</v>
       </c>
       <c r="E9" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="F9" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>50</v>
       </c>
       <c r="G9" s="23">
         <v>8</v>
@@ -9181,22 +9211,22 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>49</v>
+        <v>346</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="23">
         <v>8</v>
@@ -9209,22 +9239,22 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="F11" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>50</v>
       </c>
       <c r="G11" s="23">
         <v>8</v>
@@ -9237,22 +9267,22 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>49</v>
+        <v>346</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G12" s="23">
         <v>8</v>
@@ -9280,7 +9310,7 @@
         <v>30</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G13" s="23">
         <v>8</v>
@@ -9293,13 +9323,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="C14" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>2</v>
@@ -9308,7 +9338,7 @@
         <v>30</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G14" s="23">
         <v>8</v>
@@ -9321,13 +9351,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D15" s="29" t="s">
         <v>2</v>
@@ -9336,7 +9366,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G15" s="23">
         <v>36</v>
@@ -9349,13 +9379,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D16" s="29" t="s">
         <v>2</v>
@@ -9364,7 +9394,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G16" s="23">
         <v>36</v>
@@ -9377,13 +9407,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="C17" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" s="29" t="s">
         <v>2</v>
@@ -9392,7 +9422,7 @@
         <v>4</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G17" s="23">
         <v>8</v>
@@ -9405,13 +9435,13 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>126</v>
-      </c>
       <c r="C18" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>2</v>
@@ -9420,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G18" s="23">
         <v>100</v>
@@ -9433,13 +9463,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="C19" s="50" t="s">
         <v>189</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>190</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>2</v>
@@ -9448,7 +9478,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G19" s="23">
         <v>8</v>
@@ -9461,13 +9491,13 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="C20" s="36" t="s">
         <v>128</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>129</v>
       </c>
       <c r="D20" s="29" t="s">
         <v>2</v>
@@ -9476,14 +9506,14 @@
         <v>0</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G20" s="23">
         <v>1</v>
       </c>
       <c r="H20" s="37"/>
       <c r="I20" s="74" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -9592,30 +9622,30 @@
         <v>10</v>
       </c>
       <c r="B28" s="153" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C28" s="152"/>
       <c r="D28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="87" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="153" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H28" s="153"/>
       <c r="I28" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J28" s="84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K28" s="54" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L28" s="85" t="s">
         <v>2</v>
@@ -9629,7 +9659,7 @@
         <v>17</v>
       </c>
       <c r="C29" s="155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D29" s="150" t="s">
         <v>18</v>
@@ -9649,7 +9679,7 @@
       </c>
       <c r="J29" s="150"/>
       <c r="K29" s="150" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L29" s="151" t="s">
         <v>23</v>
@@ -9679,13 +9709,13 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="C31" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>29</v>
@@ -9694,7 +9724,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G31" s="23">
         <v>8</v>
@@ -9722,7 +9752,7 @@
         <v>33</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G32" s="23">
         <v>30</v>
@@ -9735,13 +9765,13 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="C33" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D33" s="29" t="s">
         <v>29</v>
@@ -9750,7 +9780,7 @@
         <v>30</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G33" s="23">
         <v>8</v>
@@ -9763,13 +9793,13 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D34" s="29" t="s">
         <v>29</v>
@@ -9778,7 +9808,7 @@
         <v>4</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G34" s="23">
         <v>8</v>
@@ -9794,7 +9824,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>34</v>
@@ -9806,7 +9836,7 @@
         <v>33</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G35" s="23">
         <v>8</v>
@@ -9831,10 +9861,10 @@
         <v>29</v>
       </c>
       <c r="E36" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="F36" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>50</v>
       </c>
       <c r="G36" s="23">
         <v>8</v>
@@ -9847,22 +9877,22 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>29</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>49</v>
+        <v>346</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G37" s="23">
         <v>8</v>
@@ -9875,22 +9905,22 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D38" s="29" t="s">
         <v>29</v>
       </c>
       <c r="E38" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="F38" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>50</v>
       </c>
       <c r="G38" s="23">
         <v>8</v>
@@ -9903,22 +9933,22 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="D39" s="29" t="s">
         <v>29</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>49</v>
+        <v>346</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G39" s="23">
         <v>8</v>
@@ -9946,7 +9976,7 @@
         <v>30</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G40" s="23">
         <v>8</v>
@@ -9959,13 +9989,13 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="C41" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D41" s="29" t="s">
         <v>29</v>
@@ -9974,7 +10004,7 @@
         <v>30</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G41" s="23">
         <v>8</v>
@@ -9987,13 +10017,13 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="29" t="s">
         <v>2</v>
@@ -10002,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G42" s="23">
         <v>36</v>
@@ -10015,13 +10045,13 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="29" t="s">
         <v>2</v>
@@ -10030,7 +10060,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G43" s="23">
         <v>36</v>
@@ -10128,22 +10158,22 @@
     <row r="50" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A51" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B51" s="87" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="87" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F51" s="51" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
@@ -10154,10 +10184,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B52" s="88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="75"/>
@@ -10166,10 +10196,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="156" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B53" s="88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="20"/>
@@ -10214,6 +10244,11 @@
     <mergeCell ref="H2:H3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F31:F46">
+      <formula1>$F$30:$F$43</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -10246,9 +10281,9 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'!--规则'!$F$30:$F$42</xm:f>
+            <xm:f>'!--规则'!$F$30:$F$43</xm:f>
           </x14:formula1>
-          <xm:sqref>F4:F23 F31:F46</xm:sqref>
+          <xm:sqref>F4:F23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
